--- a/src/test/resources/datos/credenciales.xlsx
+++ b/src/test/resources/datos/credenciales.xlsx
@@ -17,10 +17,10 @@
     <t/>
   </si>
   <si>
-    <t>Usuario</t>
+    <t>usuario</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>pass</t>
   </si>
   <si>
     <t>retoautomationsiigo@yopmail.com</t>
